--- a/data/case1/20/Q1_13.xlsx
+++ b/data/case1/20/Q1_13.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.077191089009374991</v>
+        <v>0.14506580613478093</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0059999999797142323</v>
+        <v>-0.0059999999697843975</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999848117085</v>
+        <v>-0.0039999999743773884</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999999711795056</v>
+        <v>-0.0079999999523838738</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999879803951</v>
+        <v>-0.0029999999745502492</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999914226407</v>
+        <v>-0.0019999999736057816</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999999645601356</v>
+        <v>-0.0090916346680076643</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.036061214548854359</v>
+        <v>-0.0099999999329010159</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999911570754</v>
+        <v>-0.0019999999716251438</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999901898491</v>
+        <v>-0.0019999999713409267</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0029999999867778016</v>
+        <v>-0.0029999999663994359</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0034999999849598673</v>
+        <v>-0.0034999999640286106</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999843812191</v>
+        <v>-0.0034999999647995494</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.003719780535111461</v>
+        <v>-0.0079999999431796809</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999999273769902</v>
+        <v>-0.00099999997841493382</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.0081581499533149859</v>
+        <v>0.024971880434306204</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0019999999889446229</v>
+        <v>-0.0019999999739868102</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999999820725662</v>
+        <v>-0.0039999999639555028</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0039999999862607716</v>
+        <v>-0.0039999999795856667</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999851847434</v>
+        <v>-0.0039999999793369767</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0039999999850239831</v>
+        <v>0.007986400478676714</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999999848676637</v>
+        <v>-0.0039999999792286189</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999802663453</v>
+        <v>-0.0049999999678265183</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999927581058</v>
+        <v>-0.019999999891151532</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999926539225</v>
+        <v>-0.019999999889711795</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999999897357128</v>
+        <v>-0.0024999999704391485</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999897761249</v>
+        <v>-0.0024999999694772512</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999917148514</v>
+        <v>0.018309321434324843</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0069999999752026199</v>
+        <v>-0.0069999999390963907</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.0042487821644123791</v>
+        <v>-0.059999999676918936</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.02490731602185825</v>
+        <v>0.023966062317695602</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0099999999659008409</v>
+        <v>-0.0099999999226660918</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0039999999860125257</v>
+        <v>-0.0039999999520095031</v>
       </c>
     </row>
   </sheetData>
